--- a/Documents/ReactJs_Tutorial.xlsx
+++ b/Documents/ReactJs_Tutorial.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LifeCycle" sheetId="1" r:id="rId1"/>
     <sheet name="Props" sheetId="2" r:id="rId2"/>
     <sheet name="State" sheetId="3" r:id="rId3"/>
     <sheet name="Reft" sheetId="4" r:id="rId4"/>
+    <sheet name="Function" sheetId="5" r:id="rId5"/>
+    <sheet name="React Router" sheetId="6" r:id="rId6"/>
+    <sheet name="What" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>I. Khái niệm</t>
   </si>
@@ -35,13 +39,67 @@
   </si>
   <si>
     <t>1. init</t>
+  </si>
+  <si>
+    <t>1. Khai báo sự kiện onClick</t>
+  </si>
+  <si>
+    <t>&lt;button onClick={() =&gt; this.capNhatState()}&gt; Click&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>() =&gt; this.capNhatState() : arrow function</t>
+  </si>
+  <si>
+    <t>        });</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>editClick = () =&gt; {</t>
+  </si>
+  <si>
+    <t>        this.setState({</t>
+  </si>
+  <si>
+    <t>            trangThai: 1</t>
+  </si>
+  <si>
+    <t>1. React Router là gì?</t>
+  </si>
+  <si>
+    <t>- Định tuyến người dùng, cho phép chuyển hướng url mà không cần load lại trang, chỉ load các nội dung thay đổi</t>
+  </si>
+  <si>
+    <t>- Phù hợp các ứng dụng Single Page Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - dùng làm front end của Back end chứ không phải font end UI</t>
+  </si>
+  <si>
+    <t>2. How??</t>
+  </si>
+  <si>
+    <t>- Tạo giao diện</t>
+  </si>
+  <si>
+    <t>- Điều hướng kiểu SPA</t>
+  </si>
+  <si>
+    <t>- Truyền tham số</t>
+  </si>
+  <si>
+    <t>- Dựng Slug cho url bằng react router</t>
+  </si>
+  <si>
+    <t>- router redirect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +112,17 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,10 +145,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -535,4 +610,159 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" activeCellId="1" sqref="A3 E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/ReactJs_Tutorial.xlsx
+++ b/Documents/ReactJs_Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LifeCycle" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Function" sheetId="5" r:id="rId5"/>
     <sheet name="React Router" sheetId="6" r:id="rId6"/>
     <sheet name="What" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
+    <sheet name="Mot so ham js" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -675,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -759,7 +759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Documents/ReactJs_Tutorial.xlsx
+++ b/Documents/ReactJs_Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LifeCycle" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>I. Khái niệm</t>
   </si>
@@ -93,13 +93,40 @@
   </si>
   <si>
     <t>- router redirect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. OnChange() </t>
+  </si>
+  <si>
+    <t>onChange={(event) =&gt;{this.isChange(event)}}</t>
+  </si>
+  <si>
+    <t>    })</t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>isChange = (event) =&gt; {</t>
+  </si>
+  <si>
+    <t>    const name = event.target.name;</t>
+  </si>
+  <si>
+    <t>    const value = event.target.value;</t>
+  </si>
+  <si>
+    <t>    this.setState({</t>
+  </si>
+  <si>
+    <t>      [name] : value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +151,11 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -155,6 +187,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +647,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,45 +658,123 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -759,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
